--- a/data-raw/File lists for functions/IN_ICD.xlsx
+++ b/data-raw/File lists for functions/IN_ICD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montefioreorg-my.sharepoint.com/personal/vahemmig_montefiore_org/Documents/Desktop backup 2025-2-20/USRDS non data files/R function definitions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katta\Desktop\Einstein research\usRds\data-raw\File lists for functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{929D47A4-C1E0-4E41-BCBD-D5BA520AF5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE76B337-C424-4A07-A423-74BF64D884CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44917E7B-9986-4349-AD7C-48F4CCCD2788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3370FB-3882-4B27-9D0A-BC8FB8DD34AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5B3370FB-3882-4B27-9D0A-BC8FB8DD34AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Year</t>
   </si>
@@ -220,6 +220,81 @@
   </si>
   <si>
     <t>sn_dxp_2016</t>
+  </si>
+  <si>
+    <t>hh_dxp_2017</t>
+  </si>
+  <si>
+    <t>hs_dxp_2017</t>
+  </si>
+  <si>
+    <t>ip_dxp_2017</t>
+  </si>
+  <si>
+    <t>op_dxp_2017</t>
+  </si>
+  <si>
+    <t>sn_dxp_2017</t>
+  </si>
+  <si>
+    <t>hh_dxp_2018</t>
+  </si>
+  <si>
+    <t>hs_dxp_2018</t>
+  </si>
+  <si>
+    <t>ip_dxp_2018</t>
+  </si>
+  <si>
+    <t>op_dxp_2018</t>
+  </si>
+  <si>
+    <t>sn_dxp_2018</t>
+  </si>
+  <si>
+    <t>hh_dxp_2019</t>
+  </si>
+  <si>
+    <t>hs_dxp_2019</t>
+  </si>
+  <si>
+    <t>ip_dxp_2019</t>
+  </si>
+  <si>
+    <t>op_dxp_2019</t>
+  </si>
+  <si>
+    <t>sn_dxp_2019</t>
+  </si>
+  <si>
+    <t>hh_dxp_2020</t>
+  </si>
+  <si>
+    <t>hs_dxp_2020</t>
+  </si>
+  <si>
+    <t>ip_dxp_2020</t>
+  </si>
+  <si>
+    <t>op_dxp_2020</t>
+  </si>
+  <si>
+    <t>sn_dxp_2020</t>
+  </si>
+  <si>
+    <t>hh_dxp_2021</t>
+  </si>
+  <si>
+    <t>hs_dxp_2021</t>
+  </si>
+  <si>
+    <t>ip_dxp_2021</t>
+  </si>
+  <si>
+    <t>op_dxp_2021</t>
+  </si>
+  <si>
+    <t>sn_dxp_2021</t>
   </si>
 </sst>
 </file>
@@ -571,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DD9F47-8E00-445A-90A0-21879819D54B}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46:E47"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,6 +1145,206 @@
         <v>61</v>
       </c>
     </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2017</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2017</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2017</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2017</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2017</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2018</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2018</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2018</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2018</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2018</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2019</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2019</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2019</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2019</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2019</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2020</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2020</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2020</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2020</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2020</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2021</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2021</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2021</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2021</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2021</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/File lists for functions/IN_ICD.xlsx
+++ b/data-raw/File lists for functions/IN_ICD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katta\Desktop\Einstein research\usRds\data-raw\File lists for functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44917E7B-9986-4349-AD7C-48F4CCCD2788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8202AC3F-C333-4AA2-B354-894CF3A3B092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5B3370FB-3882-4B27-9D0A-BC8FB8DD34AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Year</t>
   </si>
@@ -295,6 +295,15 @@
   </si>
   <si>
     <t>sn_dxp_2021</t>
+  </si>
+  <si>
+    <t>ip_dxp_2020q1q2</t>
+  </si>
+  <si>
+    <t>ip_dxp_2021q1q2</t>
+  </si>
+  <si>
+    <t>ip_det_2022q1</t>
   </si>
 </sst>
 </file>
@@ -646,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DD9F47-8E00-445A-90A0-21879819D54B}">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1267,10 +1276,10 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1278,7 +1287,7 @@
         <v>2020</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1286,7 +1295,7 @@
         <v>2020</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1294,7 +1303,7 @@
         <v>2020</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1302,23 +1311,23 @@
         <v>2020</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1326,7 +1335,7 @@
         <v>2021</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1334,7 +1343,7 @@
         <v>2021</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1342,7 +1351,31 @@
         <v>2021</v>
       </c>
       <c r="B86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2021</v>
+      </c>
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2021</v>
+      </c>
+      <c r="B88" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2022</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/File lists for functions/IN_ICD.xlsx
+++ b/data-raw/File lists for functions/IN_ICD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katta\Desktop\Einstein research\usRds\data-raw\File lists for functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8202AC3F-C333-4AA2-B354-894CF3A3B092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56EB450-C373-4616-BFF7-9AB56752A642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5B3370FB-3882-4B27-9D0A-BC8FB8DD34AB}"/>
   </bookViews>
@@ -658,7 +658,7 @@
   <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B77" t="s">
         <v>87</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B83" t="s">
         <v>88</v>
